--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_DE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SuiteCRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A297C5-E408-4D91-B891-5BE64D12D639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F007BF-89F2-4EF8-8216-5E29CD43B75A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{F740E0C6-E6D0-48E4-A0E9-ECE526A2F2F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{25A91DAF-4726-49B3-A9B7-AB5C206A0A16}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="100">
   <si>
@@ -109,9 +147,6 @@
     <t>SuiteCRM: Account</t>
   </si>
   <si>
-    <t>SuiteCRM: Custom Entity (optional)</t>
-  </si>
-  <si>
     <t>salutation</t>
   </si>
   <si>
@@ -191,9 +226,6 @@
   </si>
   <si>
     <t>picklist</t>
-  </si>
-  <si>
-    <t>SuiteCRM: Custom Entity</t>
   </si>
   <si>
     <t>Pflichtfeld</t>
@@ -366,12 +398,18 @@
   <si>
     <t>Username</t>
   </si>
+  <si>
+    <t>SuiteCRM: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>SuiteCRM: Additional Entity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +491,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1954,17 +1999,50 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1993,51 +2071,18 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3748,11 +3793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:DI68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3778,7 +3823,7 @@
   <sheetData>
     <row r="1" spans="1:113" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3800,47 +3845,47 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="114" t="s">
+      <c r="G4" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="114" t="s">
+      <c r="K4" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="O4" s="114" t="s">
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="O4" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="S4" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="W4" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
-      <c r="AA4" s="115" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="117"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="S4" s="144" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="W4" s="145" t="s">
+        <v>98</v>
+      </c>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="147"/>
+      <c r="AA4" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB4" s="146"/>
+      <c r="AC4" s="147"/>
     </row>
     <row r="5" spans="1:113" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:113" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="118" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="8"/>
@@ -3935,7 +3980,7 @@
     </row>
     <row r="8" spans="1:113" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>19</v>
@@ -3944,34 +3989,34 @@
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="G8" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="33"/>
       <c r="Q8" s="34"/>
       <c r="S8" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U8" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W8" s="76" t="s">
         <v>8</v>
@@ -4071,41 +4116,41 @@
     </row>
     <row r="9" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
       <c r="G9" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="34"/>
       <c r="S9" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T9" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W9" s="76"/>
       <c r="X9" s="33"/>
@@ -4116,41 +4161,41 @@
     </row>
     <row r="10" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
       <c r="G10" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O10" s="32"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="34"/>
       <c r="S10" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W10" s="76"/>
       <c r="X10" s="33"/>
@@ -4161,41 +4206,41 @@
     </row>
     <row r="11" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
       <c r="G11" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11" s="32"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="34"/>
       <c r="S11" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T11" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U11" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W11" s="76"/>
       <c r="X11" s="33"/>
@@ -4206,7 +4251,7 @@
     </row>
     <row r="12" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
@@ -4216,10 +4261,10 @@
         <v>10</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="33"/>
@@ -4228,19 +4273,19 @@
         <v>11</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S12" s="32" t="s">
         <v>10</v>
       </c>
       <c r="T12" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U12" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W12" s="76"/>
       <c r="X12" s="33"/>
@@ -4251,47 +4296,47 @@
     </row>
     <row r="13" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="29"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
       <c r="G13" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T13" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W13" s="76"/>
       <c r="X13" s="33"/>
@@ -4302,47 +4347,47 @@
     </row>
     <row r="14" spans="1:113" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
       <c r="G14" s="39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S14" s="39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T14" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U14" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W14" s="76"/>
       <c r="X14" s="33"/>
@@ -4438,47 +4483,47 @@
     </row>
     <row r="15" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="43"/>
       <c r="C15" s="29"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="G15" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T15" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U15" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W15" s="76"/>
       <c r="X15" s="33"/>
@@ -4489,47 +4534,47 @@
     </row>
     <row r="16" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
       <c r="G16" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S16" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="T16" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U16" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W16" s="76"/>
       <c r="X16" s="33"/>
@@ -4540,7 +4585,7 @@
     </row>
     <row r="17" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
@@ -4550,37 +4595,37 @@
         <v>12</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>12</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S17" s="32" t="s">
         <v>12</v>
       </c>
       <c r="T17" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W17" s="76"/>
       <c r="X17" s="33"/>
@@ -4591,47 +4636,47 @@
     </row>
     <row r="18" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
       <c r="G18" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T18" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U18" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W18" s="76"/>
       <c r="X18" s="33"/>
@@ -4642,41 +4687,41 @@
     </row>
     <row r="19" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="29"/>
       <c r="D19" s="30"/>
       <c r="E19" s="31"/>
       <c r="G19" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O19" s="32"/>
       <c r="P19" s="33"/>
       <c r="Q19" s="34"/>
       <c r="S19" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T19" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U19" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W19" s="76"/>
       <c r="X19" s="33"/>
@@ -4697,37 +4742,37 @@
         <v>13</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20" s="39" t="s">
         <v>13</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O20" s="39" t="s">
         <v>13</v>
       </c>
       <c r="P20" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S20" s="39" t="s">
         <v>13</v>
       </c>
       <c r="T20" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U20" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W20" s="76"/>
       <c r="X20" s="33"/>
@@ -4829,40 +4874,40 @@
       <c r="D21" s="30"/>
       <c r="E21" s="31"/>
       <c r="G21" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T21" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W21" s="76"/>
       <c r="X21" s="33"/>
@@ -4883,37 +4928,37 @@
         <v>15</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="T22" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W22" s="86"/>
       <c r="X22" s="20"/>
@@ -4934,10 +4979,10 @@
         <v>16</v>
       </c>
       <c r="H23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>41</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
@@ -4957,29 +5002,29 @@
     </row>
     <row r="24" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="47"/>
       <c r="G24" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O24" s="19"/>
       <c r="P24" s="20"/>
@@ -4996,7 +5041,7 @@
     </row>
     <row r="25" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="45"/>
@@ -5009,13 +5054,13 @@
       <c r="L25" s="20"/>
       <c r="M25" s="21"/>
       <c r="O25" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P25" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S25" s="19"/>
       <c r="T25" s="20"/>
@@ -5029,7 +5074,7 @@
     </row>
     <row r="26" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" s="38"/>
       <c r="C26" s="45"/>
@@ -5042,13 +5087,13 @@
       <c r="L26" s="20"/>
       <c r="M26" s="21"/>
       <c r="O26" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S26" s="19"/>
       <c r="T26" s="20"/>
@@ -5100,55 +5145,55 @@
       <c r="AC28" s="57"/>
     </row>
     <row r="29" spans="1:113" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="134" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="136"/>
-      <c r="G29" s="118" t="s">
+      <c r="A29" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="117"/>
+      <c r="G29" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="137"/>
       <c r="J29" s="62"/>
-      <c r="K29" s="118" t="s">
+      <c r="K29" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="119"/>
-      <c r="M29" s="120"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="137"/>
       <c r="N29" s="62"/>
-      <c r="O29" s="121" t="s">
+      <c r="O29" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="123"/>
+      <c r="P29" s="139"/>
+      <c r="Q29" s="140"/>
       <c r="R29" s="63"/>
-      <c r="S29" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="T29" s="122"/>
-      <c r="U29" s="123"/>
+      <c r="S29" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="T29" s="139"/>
+      <c r="U29" s="140"/>
       <c r="V29" s="63"/>
-      <c r="W29" s="124" t="s">
-        <v>52</v>
-      </c>
-      <c r="X29" s="125"/>
-      <c r="Y29" s="126"/>
+      <c r="W29" s="141" t="s">
+        <v>99</v>
+      </c>
+      <c r="X29" s="142"/>
+      <c r="Y29" s="143"/>
       <c r="Z29" s="63"/>
       <c r="AA29" s="106" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="AB29" s="104"/>
       <c r="AC29" s="105"/>
     </row>
     <row r="30" spans="1:113" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="133" t="s">
-        <v>81</v>
+      <c r="A30" s="114" t="s">
+        <v>79</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="65"/>
@@ -5212,15 +5257,15 @@
     </row>
     <row r="31" spans="1:113" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="73"/>
       <c r="E31" s="75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="20"/>
@@ -5243,7 +5288,7 @@
     </row>
     <row r="32" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B32" s="78"/>
       <c r="C32" s="79"/>
@@ -5270,7 +5315,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" s="80"/>
       <c r="C33" s="81"/>
@@ -5297,7 +5342,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B34" s="80"/>
       <c r="C34" s="81"/>
@@ -5324,7 +5369,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" s="80"/>
       <c r="C35" s="81"/>
@@ -5351,7 +5396,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B36" s="80"/>
       <c r="C36" s="81"/>
@@ -5378,7 +5423,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B37" s="80"/>
       <c r="C37" s="81"/>
@@ -5405,7 +5450,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B38" s="80"/>
       <c r="C38" s="81"/>
@@ -5432,7 +5477,7 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39" s="80"/>
       <c r="C39" s="81"/>
@@ -5459,7 +5504,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B40" s="80"/>
       <c r="C40" s="81"/>
@@ -5486,7 +5531,7 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B41" s="83"/>
       <c r="C41" s="84"/>
@@ -5537,15 +5582,15 @@
       <c r="AC42" s="93"/>
     </row>
     <row r="43" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="138" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="139" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="139"/>
-      <c r="D43" s="139"/>
-      <c r="E43" s="140" t="s">
+      <c r="A43" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="121" t="s">
         <v>2</v>
       </c>
       <c r="G43" s="11" t="s">
@@ -5605,7 +5650,7 @@
     </row>
     <row r="44" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" s="42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" s="78"/>
       <c r="C44" s="79"/>
@@ -5632,7 +5677,7 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" s="80"/>
       <c r="C45" s="81"/>
@@ -5659,7 +5704,7 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" s="80"/>
       <c r="C46" s="81"/>
@@ -5686,7 +5731,7 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B47" s="80"/>
       <c r="C47" s="81"/>
@@ -5713,7 +5758,7 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B48" s="80"/>
       <c r="C48" s="81"/>
@@ -5740,7 +5785,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B49" s="80"/>
       <c r="C49" s="81"/>
@@ -5767,7 +5812,7 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B50" s="80"/>
       <c r="C50" s="81"/>
@@ -5794,7 +5839,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B51" s="80"/>
       <c r="C51" s="81"/>
@@ -5821,7 +5866,7 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B52" s="80"/>
       <c r="C52" s="81"/>
@@ -5848,7 +5893,7 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B53" s="83"/>
       <c r="C53" s="84"/>
@@ -5900,15 +5945,15 @@
     </row>
     <row r="55" spans="1:29" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="145" t="s">
+      <c r="A56" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="146" t="s">
+      <c r="B56" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="146"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="147" t="s">
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="125" t="s">
         <v>2</v>
       </c>
       <c r="G56" s="11" t="s">
@@ -5967,14 +6012,14 @@
       </c>
     </row>
     <row r="57" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="141" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="142" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="143"/>
-      <c r="D57" s="144"/>
+      <c r="A57" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="129" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="130"/>
+      <c r="D57" s="131"/>
       <c r="E57" s="113"/>
       <c r="G57" s="32"/>
       <c r="H57" s="33"/>
@@ -5997,13 +6042,13 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="127" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="128"/>
-      <c r="D58" s="129"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="132" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="133"/>
+      <c r="D58" s="134"/>
       <c r="E58" s="59"/>
       <c r="G58" s="32"/>
       <c r="H58" s="33"/>
@@ -6026,13 +6071,13 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="128"/>
-      <c r="D59" s="129"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="132" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="133"/>
+      <c r="D59" s="134"/>
       <c r="E59" s="59"/>
       <c r="G59" s="32"/>
       <c r="H59" s="33"/>
@@ -6055,13 +6100,13 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="127" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="128"/>
-      <c r="D60" s="129"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="132" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="133"/>
+      <c r="D60" s="134"/>
       <c r="E60" s="59"/>
       <c r="G60" s="32"/>
       <c r="H60" s="33"/>
@@ -6084,9 +6129,9 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="58"/>
-      <c r="B61" s="127"/>
-      <c r="C61" s="128"/>
-      <c r="D61" s="129"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="134"/>
       <c r="E61" s="59"/>
       <c r="G61" s="32"/>
       <c r="H61" s="33"/>
@@ -6109,9 +6154,9 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="58"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="128"/>
-      <c r="D62" s="129"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="134"/>
       <c r="E62" s="59"/>
       <c r="G62" s="32"/>
       <c r="H62" s="33"/>
@@ -6134,9 +6179,9 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="58"/>
-      <c r="B63" s="127"/>
-      <c r="C63" s="128"/>
-      <c r="D63" s="129"/>
+      <c r="B63" s="132"/>
+      <c r="C63" s="133"/>
+      <c r="D63" s="134"/>
       <c r="E63" s="59"/>
       <c r="G63" s="32"/>
       <c r="H63" s="33"/>
@@ -6159,9 +6204,9 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="58"/>
-      <c r="B64" s="127"/>
-      <c r="C64" s="128"/>
-      <c r="D64" s="129"/>
+      <c r="B64" s="132"/>
+      <c r="C64" s="133"/>
+      <c r="D64" s="134"/>
       <c r="E64" s="59"/>
       <c r="G64" s="32"/>
       <c r="H64" s="33"/>
@@ -6184,9 +6229,9 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="58"/>
-      <c r="B65" s="127"/>
-      <c r="C65" s="128"/>
-      <c r="D65" s="129"/>
+      <c r="B65" s="132"/>
+      <c r="C65" s="133"/>
+      <c r="D65" s="134"/>
       <c r="E65" s="59"/>
       <c r="G65" s="32"/>
       <c r="H65" s="33"/>
@@ -6209,9 +6254,9 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="58"/>
-      <c r="B66" s="127"/>
-      <c r="C66" s="128"/>
-      <c r="D66" s="129"/>
+      <c r="B66" s="132"/>
+      <c r="C66" s="133"/>
+      <c r="D66" s="134"/>
       <c r="E66" s="59"/>
       <c r="G66" s="32"/>
       <c r="H66" s="33"/>
@@ -6234,9 +6279,9 @@
     </row>
     <row r="67" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="60"/>
-      <c r="B67" s="130"/>
-      <c r="C67" s="131"/>
-      <c r="D67" s="132"/>
+      <c r="B67" s="126"/>
+      <c r="C67" s="127"/>
+      <c r="D67" s="128"/>
       <c r="E67" s="61"/>
       <c r="G67" s="53"/>
       <c r="H67" s="54"/>
@@ -6267,28 +6312,28 @@
     <protectedRange sqref="AA57:AC67 A57:Y67" name="Contact Fields_1_2"/>
   </protectedRanges>
   <mergeCells count="22">
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="W29:Y29"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
   </mergeCells>
   <conditionalFormatting sqref="A27:R28 W9:AK13 B8:R26 W22:AK28 W19:AC21 W15:AK18 W14:AC14 W8:AC8">
     <cfRule type="expression" dxfId="99" priority="119">
@@ -6690,19 +6735,17 @@
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D27 C44:D54 C31:D42" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M27 Q7:Q27 U7:U27 AC7:AC27 I7:I27 Y7:Y27 Y44:Y54 Q31:Q42 M31:M42 I31:I42 AC44:AC54 AC31:AC42 Y31:Y42 U31:U42 Y57:Y67 AC57:AC67 Q57:Q67 M57:M67 I57:I67 U57:U67" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q44:Q54 I44:I54 M44:M54 U44:U54" xr:uid="{CB4767CD-7360-4CDC-AE40-B25C981400B7}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I27 M7:M27 Q7:Q27 U7:U27 Y7:Y27 AC7:AC27 I31:I42 M31:M42 Q31:Q42 U31:U42 Y31:Y42 AC31:AC42 I44:I54 M44:M54 Q44:Q54 U44:U54 Y44:Y54 AC44:AC54 I57:I67 M56:M67 Q57:Q67 U57:U67 Y57:Y67 AC57:AC67" xr:uid="{848627B2-A0F1-4AA8-9563-01A548DBB5D7}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F007BF-89F2-4EF8-8216-5E29CD43B75A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBBEE54-8096-4CF9-AAA5-12B329010D0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18630" windowHeight="14340" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
         </r>
@@ -62,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
         </r>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="101">
   <si>
     <t>snapADDY</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>SuiteCRM: Additional Entity</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2017,32 +2020,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -2071,23 +2059,82 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="104">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3796,8 +3843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:DI68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3851,37 +3898,37 @@
         <v>52</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="144" t="s">
+      <c r="G4" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="144" t="s">
+      <c r="K4" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="O4" s="144" t="s">
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="O4" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="S4" s="144" t="s">
+      <c r="P4" s="126"/>
+      <c r="Q4" s="126"/>
+      <c r="S4" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="W4" s="145" t="s">
+      <c r="T4" s="126"/>
+      <c r="U4" s="126"/>
+      <c r="W4" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="147"/>
-      <c r="AA4" s="145" t="s">
+      <c r="X4" s="128"/>
+      <c r="Y4" s="129"/>
+      <c r="AA4" s="127" t="s">
         <v>99</v>
       </c>
-      <c r="AB4" s="146"/>
-      <c r="AC4" s="147"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="129"/>
     </row>
     <row r="5" spans="1:113" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:113" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3986,7 +4033,9 @@
         <v>19</v>
       </c>
       <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="D8" s="25" t="s">
+        <v>100</v>
+      </c>
       <c r="E8" s="26"/>
       <c r="G8" s="32" t="s">
         <v>59</v>
@@ -4120,7 +4169,9 @@
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
+      <c r="D9" s="30" t="s">
+        <v>100</v>
+      </c>
       <c r="E9" s="31"/>
       <c r="G9" s="32" t="s">
         <v>60</v>
@@ -4165,7 +4216,9 @@
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="30" t="s">
+        <v>100</v>
+      </c>
       <c r="E10" s="31"/>
       <c r="G10" s="32" t="s">
         <v>61</v>
@@ -4538,7 +4591,9 @@
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="30" t="s">
+        <v>100</v>
+      </c>
       <c r="E16" s="31"/>
       <c r="G16" s="32" t="s">
         <v>67</v>
@@ -5152,35 +5207,35 @@
       <c r="C29" s="116"/>
       <c r="D29" s="116"/>
       <c r="E29" s="117"/>
-      <c r="G29" s="135" t="s">
+      <c r="G29" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="136"/>
-      <c r="I29" s="137"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="132"/>
       <c r="J29" s="62"/>
-      <c r="K29" s="135" t="s">
+      <c r="K29" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="136"/>
-      <c r="M29" s="137"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="132"/>
       <c r="N29" s="62"/>
-      <c r="O29" s="138" t="s">
+      <c r="O29" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="139"/>
-      <c r="Q29" s="140"/>
+      <c r="P29" s="134"/>
+      <c r="Q29" s="135"/>
       <c r="R29" s="63"/>
-      <c r="S29" s="138" t="s">
+      <c r="S29" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="T29" s="139"/>
-      <c r="U29" s="140"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="135"/>
       <c r="V29" s="63"/>
-      <c r="W29" s="141" t="s">
+      <c r="W29" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="X29" s="142"/>
-      <c r="Y29" s="143"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="138"/>
       <c r="Z29" s="63"/>
       <c r="AA29" s="106" t="s">
         <v>99</v>
@@ -6015,11 +6070,11 @@
       <c r="A57" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="129" t="s">
+      <c r="B57" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="130"/>
-      <c r="D57" s="131"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="144"/>
       <c r="E57" s="113"/>
       <c r="G57" s="32"/>
       <c r="H57" s="33"/>
@@ -6044,11 +6099,11 @@
       <c r="A58" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="132" t="s">
+      <c r="B58" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="133"/>
-      <c r="D58" s="134"/>
+      <c r="C58" s="146"/>
+      <c r="D58" s="147"/>
       <c r="E58" s="59"/>
       <c r="G58" s="32"/>
       <c r="H58" s="33"/>
@@ -6073,11 +6128,11 @@
       <c r="A59" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="132" t="s">
+      <c r="B59" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="133"/>
-      <c r="D59" s="134"/>
+      <c r="C59" s="146"/>
+      <c r="D59" s="147"/>
       <c r="E59" s="59"/>
       <c r="G59" s="32"/>
       <c r="H59" s="33"/>
@@ -6102,11 +6157,11 @@
       <c r="A60" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="132" t="s">
+      <c r="B60" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="133"/>
-      <c r="D60" s="134"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="147"/>
       <c r="E60" s="59"/>
       <c r="G60" s="32"/>
       <c r="H60" s="33"/>
@@ -6129,9 +6184,9 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="58"/>
-      <c r="B61" s="132"/>
-      <c r="C61" s="133"/>
-      <c r="D61" s="134"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="146"/>
+      <c r="D61" s="147"/>
       <c r="E61" s="59"/>
       <c r="G61" s="32"/>
       <c r="H61" s="33"/>
@@ -6154,9 +6209,9 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="58"/>
-      <c r="B62" s="132"/>
-      <c r="C62" s="133"/>
-      <c r="D62" s="134"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="147"/>
       <c r="E62" s="59"/>
       <c r="G62" s="32"/>
       <c r="H62" s="33"/>
@@ -6179,9 +6234,9 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="58"/>
-      <c r="B63" s="132"/>
-      <c r="C63" s="133"/>
-      <c r="D63" s="134"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="146"/>
+      <c r="D63" s="147"/>
       <c r="E63" s="59"/>
       <c r="G63" s="32"/>
       <c r="H63" s="33"/>
@@ -6204,9 +6259,9 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="58"/>
-      <c r="B64" s="132"/>
-      <c r="C64" s="133"/>
-      <c r="D64" s="134"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="147"/>
       <c r="E64" s="59"/>
       <c r="G64" s="32"/>
       <c r="H64" s="33"/>
@@ -6229,9 +6284,9 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="58"/>
-      <c r="B65" s="132"/>
-      <c r="C65" s="133"/>
-      <c r="D65" s="134"/>
+      <c r="B65" s="145"/>
+      <c r="C65" s="146"/>
+      <c r="D65" s="147"/>
       <c r="E65" s="59"/>
       <c r="G65" s="32"/>
       <c r="H65" s="33"/>
@@ -6254,9 +6309,9 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="58"/>
-      <c r="B66" s="132"/>
-      <c r="C66" s="133"/>
-      <c r="D66" s="134"/>
+      <c r="B66" s="145"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="147"/>
       <c r="E66" s="59"/>
       <c r="G66" s="32"/>
       <c r="H66" s="33"/>
@@ -6279,9 +6334,9 @@
     </row>
     <row r="67" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="60"/>
-      <c r="B67" s="126"/>
-      <c r="C67" s="127"/>
-      <c r="D67" s="128"/>
+      <c r="B67" s="139"/>
+      <c r="C67" s="140"/>
+      <c r="D67" s="141"/>
       <c r="E67" s="61"/>
       <c r="G67" s="53"/>
       <c r="H67" s="54"/>
@@ -6308,21 +6363,10 @@
     <protectedRange sqref="W20:AC20 W7:AB19 W21:AB27 A7:V27" name="Contact Fields"/>
     <protectedRange sqref="A1" name="Titel"/>
     <protectedRange sqref="V29:AC30 V43:AC43" name="customEntities_2"/>
-    <protectedRange sqref="N31:N42 J31:J42 R31:R42 A31:F42 A44:U54" name="Questionnaire_3"/>
+    <protectedRange sqref="N31:N42 J31:J42 R31:R42 A44:U54 A31:F42" name="Questionnaire_3"/>
     <protectedRange sqref="AA57:AC67 A57:Y67" name="Contact Fields_1_2"/>
   </protectedRanges>
   <mergeCells count="22">
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="W29:Y29"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
@@ -6334,368 +6378,387 @@
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="S4:U4"/>
   </mergeCells>
   <conditionalFormatting sqref="A27:R28 W9:AK13 B8:R26 W22:AK28 W19:AC21 W15:AK18 W14:AC14 W8:AC8">
-    <cfRule type="expression" dxfId="99" priority="119">
+    <cfRule type="expression" dxfId="103" priority="123">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="120">
+    <cfRule type="expression" dxfId="102" priority="124">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A26">
-    <cfRule type="expression" dxfId="97" priority="107">
+    <cfRule type="expression" dxfId="101" priority="111">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="108">
+    <cfRule type="expression" dxfId="100" priority="112">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7:AC7">
-    <cfRule type="expression" dxfId="95" priority="101">
+    <cfRule type="expression" dxfId="99" priority="105">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="102">
+    <cfRule type="expression" dxfId="98" priority="106">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23:V28 V8:V22">
-    <cfRule type="expression" dxfId="93" priority="99">
+    <cfRule type="expression" dxfId="97" priority="103">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="100">
+    <cfRule type="expression" dxfId="96" priority="104">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:U8">
-    <cfRule type="expression" dxfId="91" priority="95">
+    <cfRule type="expression" dxfId="95" priority="99">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="96">
+    <cfRule type="expression" dxfId="94" priority="100">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:U10">
-    <cfRule type="expression" dxfId="89" priority="93">
+    <cfRule type="expression" dxfId="93" priority="97">
       <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="94">
+    <cfRule type="expression" dxfId="92" priority="98">
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22:U22">
-    <cfRule type="expression" dxfId="87" priority="91">
+    <cfRule type="expression" dxfId="91" priority="95">
       <formula>$C22="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="92">
+    <cfRule type="expression" dxfId="90" priority="96">
       <formula>$D22="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:U11">
-    <cfRule type="expression" dxfId="85" priority="89">
+    <cfRule type="expression" dxfId="89" priority="93">
       <formula>$C11="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="90">
+    <cfRule type="expression" dxfId="88" priority="94">
       <formula>$D11="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S21:U21">
-    <cfRule type="expression" dxfId="83" priority="87">
+    <cfRule type="expression" dxfId="87" priority="91">
       <formula>$C21="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="88">
+    <cfRule type="expression" dxfId="86" priority="92">
       <formula>$D21="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:U20">
-    <cfRule type="expression" dxfId="81" priority="85">
+    <cfRule type="expression" dxfId="85" priority="89">
       <formula>$C18="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="86">
+    <cfRule type="expression" dxfId="84" priority="90">
       <formula>$D18="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:U17">
-    <cfRule type="expression" dxfId="79" priority="83">
+    <cfRule type="expression" dxfId="83" priority="87">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="84">
+    <cfRule type="expression" dxfId="82" priority="88">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:U12">
-    <cfRule type="expression" dxfId="77" priority="81">
+    <cfRule type="expression" dxfId="81" priority="85">
       <formula>$C12="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="82">
+    <cfRule type="expression" dxfId="80" priority="86">
       <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z31:AG36 AA37:AG54 B36 A36:A38 C36:F38 A30:R30 A29:F29 J29 N29 R29 A31:F35 A39:F42 N31:N42 J31:J42 R31:R42 A43:R54 V43:AC43 V29:AG30">
-    <cfRule type="expression" dxfId="75" priority="71">
+    <cfRule type="expression" dxfId="79" priority="75">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="72">
+    <cfRule type="expression" dxfId="78" priority="76">
       <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B38">
-    <cfRule type="expression" dxfId="73" priority="69">
-      <formula>$C36="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="70">
-      <formula>$D36="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31:O32">
-    <cfRule type="expression" dxfId="71" priority="67">
+    <cfRule type="expression" dxfId="75" priority="71">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="68">
+    <cfRule type="expression" dxfId="74" priority="72">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:Q32">
-    <cfRule type="expression" dxfId="69" priority="65">
+    <cfRule type="expression" dxfId="73" priority="69">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="66">
+    <cfRule type="expression" dxfId="72" priority="70">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O33:O42">
-    <cfRule type="expression" dxfId="67" priority="63">
+    <cfRule type="expression" dxfId="71" priority="67">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="64">
+    <cfRule type="expression" dxfId="70" priority="68">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33:Q42">
-    <cfRule type="expression" dxfId="65" priority="61">
+    <cfRule type="expression" dxfId="69" priority="65">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="62">
+    <cfRule type="expression" dxfId="68" priority="66">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:K32">
-    <cfRule type="expression" dxfId="63" priority="59">
+    <cfRule type="expression" dxfId="67" priority="63">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="60">
+    <cfRule type="expression" dxfId="66" priority="64">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:M32">
-    <cfRule type="expression" dxfId="61" priority="57">
+    <cfRule type="expression" dxfId="65" priority="61">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="58">
+    <cfRule type="expression" dxfId="64" priority="62">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:K42">
-    <cfRule type="expression" dxfId="59" priority="55">
+    <cfRule type="expression" dxfId="63" priority="59">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="56">
+    <cfRule type="expression" dxfId="62" priority="60">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:M42">
-    <cfRule type="expression" dxfId="57" priority="53">
+    <cfRule type="expression" dxfId="61" priority="57">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="54">
+    <cfRule type="expression" dxfId="60" priority="58">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G32">
-    <cfRule type="expression" dxfId="55" priority="51">
+    <cfRule type="expression" dxfId="59" priority="55">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="52">
+    <cfRule type="expression" dxfId="58" priority="56">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:I32">
-    <cfRule type="expression" dxfId="53" priority="49">
+    <cfRule type="expression" dxfId="57" priority="53">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="50">
+    <cfRule type="expression" dxfId="56" priority="54">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G42">
-    <cfRule type="expression" dxfId="51" priority="47">
+    <cfRule type="expression" dxfId="55" priority="51">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="48">
+    <cfRule type="expression" dxfId="54" priority="52">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I42">
-    <cfRule type="expression" dxfId="49" priority="45">
+    <cfRule type="expression" dxfId="53" priority="49">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="46">
+    <cfRule type="expression" dxfId="52" priority="50">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31:AC41">
-    <cfRule type="expression" dxfId="47" priority="43">
+    <cfRule type="expression" dxfId="51" priority="47">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="44">
+    <cfRule type="expression" dxfId="50" priority="48">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:AC53">
-    <cfRule type="expression" dxfId="45" priority="41">
+    <cfRule type="expression" dxfId="49" priority="45">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="42">
+    <cfRule type="expression" dxfId="48" priority="46">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V54:AC54">
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="47" priority="43">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
+    <cfRule type="expression" dxfId="46" priority="44">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V42:AC42">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="45" priority="41">
       <formula>$C42="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38">
+    <cfRule type="expression" dxfId="44" priority="42">
       <formula>$D42="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z51">
-    <cfRule type="expression" dxfId="39" priority="75">
+    <cfRule type="expression" dxfId="43" priority="79">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="76">
+    <cfRule type="expression" dxfId="42" priority="80">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37 Z42:Z49">
-    <cfRule type="expression" dxfId="37" priority="77">
+    <cfRule type="expression" dxfId="41" priority="81">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="78">
+    <cfRule type="expression" dxfId="40" priority="82">
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z50 Z38:Z41">
-    <cfRule type="expression" dxfId="35" priority="79">
+    <cfRule type="expression" dxfId="39" priority="83">
       <formula>$C42="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="80">
+    <cfRule type="expression" dxfId="38" priority="84">
       <formula>$D42="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:U30 S43:U54">
-    <cfRule type="expression" dxfId="33" priority="35">
+    <cfRule type="expression" dxfId="37" priority="39">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="36">
+    <cfRule type="expression" dxfId="36" priority="40">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31:S32">
-    <cfRule type="expression" dxfId="31" priority="33">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:U32">
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="33" priority="35">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:S42">
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="31" priority="33">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="30" priority="34">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:U42">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD21:AK21">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>$C21="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>$D21="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD20:AK20">
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$C20="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>$D20="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD19:AK19">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>$C19="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$D19="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD14:AK14">
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$C14="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$D14="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AK8">
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:H55">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W57:Y67">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>$C57="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O57:Q67">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$C57="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$D57="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:M67">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$C57="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$D57="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57:I67">
     <cfRule type="expression" dxfId="9" priority="9">
       <formula>$C57="x"</formula>
     </cfRule>
@@ -6703,7 +6766,7 @@
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:M67">
+  <conditionalFormatting sqref="AA57:AC67">
     <cfRule type="expression" dxfId="7" priority="7">
       <formula>$C57="x"</formula>
     </cfRule>
@@ -6711,7 +6774,7 @@
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:I67">
+  <conditionalFormatting sqref="S57:U67">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>$C57="x"</formula>
     </cfRule>
@@ -6719,20 +6782,20 @@
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA57:AC67">
+  <conditionalFormatting sqref="B37">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C57="x"</formula>
+      <formula>$C37="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D57="x"</formula>
+      <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S57:U67">
+  <conditionalFormatting sqref="B38">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C57="x"</formula>
+      <formula>$C38="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D57="x"</formula>
+      <formula>$D38="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SuiteCRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A297C5-E408-4D91-B891-5BE64D12D639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D5DC9-BCC2-4CAD-8E33-047FC4ED9FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -455,7 +455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,18 +465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9DA600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,12 +482,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FFEB6758"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4AAA2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="103">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -520,37 +514,6 @@
     </border>
     <border>
       <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right/>
@@ -577,51 +540,6 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right/>
@@ -687,17 +605,6 @@
       <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -710,17 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -775,17 +671,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,44 +685,7 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
@@ -997,43 +845,6 @@
       </top>
       <bottom style="thick">
         <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,111 +993,6 @@
       </top>
       <bottom style="thick">
         <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1304,11 +1010,307 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEB6758"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
       <right style="thick">
+        <color rgb="FFEB6758"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFEB6758"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFEB6758"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFEB6758"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1318,7 +1320,112 @@
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFEB6758"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFEB6758"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFEB6758"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEB6758"/>
       </left>
       <right style="thin">
         <color theme="0"/>
@@ -1334,7 +1441,7 @@
         <color theme="0"/>
       </left>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1344,24 +1451,11 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFEB6758"/>
       </left>
       <right/>
       <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFEB6758"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1370,11 +1464,9 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1382,112 +1474,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </right>
-      <top style="thin">
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFEB6758"/>
       </left>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1498,9 +1509,11 @@
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1508,57 +1521,26 @@
         <color theme="0"/>
       </left>
       <right style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFEB6758"/>
       </right>
       <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFF4AAA2"/>
       </left>
       <right/>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF4AAA2"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF4AAA2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1566,48 +1548,35 @@
       <left/>
       <right/>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF4AAA2"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF4AAA2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFF4AAA2"/>
       </right>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF4AAA2"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF4AAA2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFF4AAA2"/>
       </left>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFF4AAA2"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1622,7 +1591,7 @@
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFF4AAA2"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1634,146 +1603,163 @@
         <color theme="0"/>
       </left>
       <right style="thick">
+        <color rgb="FFF4AAA2"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF4AAA2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF4AAA2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF4AAA2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF4AAA2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF4AAA2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF4AAA2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF4AAA2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF4AAA2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF4AAA2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF4AAA2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF4AAA2"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF4AAA2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF4AAA2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFF4AAA2"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF4AAA2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF4AAA2"/>
+      </left>
+      <right/>
+      <top style="thick">
         <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF4AAA2"/>
       </right>
       <top style="thick">
         <color theme="4" tint="0.59996337778862885"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1781,7 +1767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1798,94 +1784,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1898,111 +1870,98 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2011,33 +1970,57 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3145,6 +3128,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF4AAA2"/>
+      <color rgb="FFEB6758"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3751,8 +3740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:DI68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3794,7 +3783,7 @@
       <c r="G3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:113" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:113" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3806,41 +3795,41 @@
         <v>54</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="114" t="s">
+      <c r="G4" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="114" t="s">
+      <c r="K4" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="O4" s="114" t="s">
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="O4" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="S4" s="114" t="s">
+      <c r="P4" s="141"/>
+      <c r="Q4" s="141"/>
+      <c r="S4" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="W4" s="115" t="s">
+      <c r="T4" s="141"/>
+      <c r="U4" s="141"/>
+      <c r="W4" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
-      <c r="AA4" s="115" t="s">
+      <c r="X4" s="143"/>
+      <c r="Y4" s="144"/>
+      <c r="AA4" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="117"/>
+      <c r="AB4" s="143"/>
+      <c r="AC4" s="144"/>
     </row>
-    <row r="5" spans="1:113" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:113" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:113" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="74" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="8"/>
@@ -3849,141 +3838,141 @@
       <c r="E6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="107" t="s">
+      <c r="W6" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="108" t="s">
+      <c r="X6" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="Y6" s="109" t="s">
+      <c r="Y6" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AA6" s="107" t="s">
+      <c r="AA6" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="AB6" s="108" t="s">
+      <c r="AB6" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AC6" s="109" t="s">
+      <c r="AC6" s="107" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:113" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="21"/>
-      <c r="W7" s="76" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="87"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="87"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="87"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="87"/>
+      <c r="W7" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="X7" s="33" t="s">
+      <c r="X7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="77"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="77"/>
+      <c r="Y7" s="109"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="109"/>
     </row>
-    <row r="8" spans="1:113" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:113" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="G8" s="32" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="G8" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="M8" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="34"/>
-      <c r="S8" s="32" t="s">
+      <c r="O8" s="88"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="89"/>
+      <c r="S8" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="T8" s="33" t="s">
+      <c r="T8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="34" t="s">
+      <c r="U8" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="76" t="s">
+      <c r="W8" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="33" t="s">
+      <c r="X8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="Y8" s="77"/>
+      <c r="Y8" s="109"/>
       <c r="Z8"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="77"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="109"/>
       <c r="AD8"/>
       <c r="AE8"/>
       <c r="AF8"/>
@@ -4070,287 +4059,287 @@
       <c r="DI8"/>
     </row>
     <row r="9" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="G9" s="32" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="G9" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="L9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34"/>
-      <c r="S9" s="32" t="s">
+      <c r="O9" s="88"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="89"/>
+      <c r="S9" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="T9" s="33" t="s">
+      <c r="T9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="21" t="s">
+      <c r="U9" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="77"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="77"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="109"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="109"/>
     </row>
     <row r="10" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="G10" s="32" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="G10" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="L10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="34"/>
-      <c r="S10" s="32" t="s">
+      <c r="O10" s="88"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="89"/>
+      <c r="S10" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="T10" s="33" t="s">
+      <c r="T10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="U10" s="21" t="s">
+      <c r="U10" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="W10" s="76"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="77"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="77"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="109"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="109"/>
     </row>
     <row r="11" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="G11" s="32" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="32"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34"/>
-      <c r="S11" s="32" t="s">
+      <c r="O11" s="88"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="89"/>
+      <c r="S11" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="T11" s="33" t="s">
+      <c r="T11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="U11" s="34" t="s">
+      <c r="U11" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="76"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="77"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="77"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="109"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="109"/>
     </row>
     <row r="12" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="G12" s="32" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="G12" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="21"/>
-      <c r="O12" s="32" t="s">
+      <c r="K12" s="88"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="87"/>
+      <c r="O12" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="33" t="s">
+      <c r="P12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="34" t="s">
+      <c r="Q12" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="S12" s="32" t="s">
+      <c r="S12" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="33" t="s">
+      <c r="T12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="34" t="s">
+      <c r="U12" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="W12" s="76"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="77"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="77"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="109"/>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="109"/>
     </row>
     <row r="13" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="G13" s="19" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="G13" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="34" t="s">
+      <c r="Q13" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="19" t="s">
+      <c r="S13" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="T13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="U13" s="21" t="s">
+      <c r="U13" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="W13" s="76"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="77"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="77"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="109"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="109"/>
     </row>
-    <row r="14" spans="1:113" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:113" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="G14" s="39" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="G14" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="P14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="34" t="s">
+      <c r="Q14" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="S14" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="T14" s="33" t="s">
+      <c r="T14" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="40" t="s">
+      <c r="U14" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="W14" s="76"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="77"/>
+      <c r="W14" s="108"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="109"/>
       <c r="Z14"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="77"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="109"/>
       <c r="AD14"/>
       <c r="AE14"/>
       <c r="AF14"/>
@@ -4437,304 +4426,304 @@
       <c r="DI14"/>
     </row>
     <row r="15" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="G15" s="35" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="G15" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="36" t="s">
+      <c r="L15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="35" t="s">
+      <c r="O15" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="P15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Q15" s="34" t="s">
+      <c r="Q15" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="S15" s="35" t="s">
+      <c r="S15" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="T15" s="36" t="s">
+      <c r="T15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="U15" s="44" t="s">
+      <c r="U15" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="W15" s="76"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="77"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="77"/>
+      <c r="W15" s="108"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="109"/>
+      <c r="AA15" s="108"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="109"/>
     </row>
     <row r="16" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="G16" s="32" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="G16" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="L16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="32" t="s">
+      <c r="O16" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="P16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Q16" s="34" t="s">
+      <c r="Q16" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="S16" s="32" t="s">
+      <c r="S16" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="T16" s="33" t="s">
+      <c r="T16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="U16" s="34" t="s">
+      <c r="U16" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="W16" s="76"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="77"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="77"/>
+      <c r="W16" s="108"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="109"/>
+      <c r="AA16" s="108"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="109"/>
     </row>
     <row r="17" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="G17" s="32" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="G17" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="32" t="s">
+      <c r="O17" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q17" s="34" t="s">
+      <c r="Q17" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="S17" s="32" t="s">
+      <c r="S17" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="T17" s="33" t="s">
+      <c r="T17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="34" t="s">
+      <c r="U17" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="W17" s="76"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="77"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="77"/>
+      <c r="W17" s="108"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="109"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="109"/>
     </row>
     <row r="18" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="G18" s="32" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="G18" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="32" t="s">
+      <c r="O18" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="P18" s="33" t="s">
+      <c r="P18" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="Q18" s="34" t="s">
+      <c r="Q18" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="S18" s="32" t="s">
+      <c r="S18" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="T18" s="33" t="s">
+      <c r="T18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="U18" s="34" t="s">
+      <c r="U18" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="W18" s="76"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="77"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="77"/>
+      <c r="W18" s="108"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="109"/>
+      <c r="AA18" s="108"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="109"/>
     </row>
     <row r="19" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="G19" s="32" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="G19" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="33" t="s">
+      <c r="L19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="32"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="34"/>
-      <c r="S19" s="32" t="s">
+      <c r="O19" s="88"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="89"/>
+      <c r="S19" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="T19" s="33" t="s">
+      <c r="T19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="34" t="s">
+      <c r="U19" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="W19" s="76"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="77"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="77"/>
+      <c r="W19" s="108"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="109"/>
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="109"/>
     </row>
-    <row r="20" spans="1:113" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:113" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="G20" s="39" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="G20" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="39" t="s">
+      <c r="O20" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="P20" s="41" t="s">
+      <c r="P20" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="40" t="s">
+      <c r="Q20" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="39" t="s">
+      <c r="S20" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="T20" s="33" t="s">
+      <c r="T20" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="U20" s="40" t="s">
+      <c r="U20" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="W20" s="76"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="77"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="77"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="109"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="109"/>
       <c r="AD20"/>
       <c r="AE20"/>
       <c r="AF20"/>
@@ -4821,1441 +4810,1441 @@
       <c r="DI20"/>
     </row>
     <row r="21" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="G21" s="32" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="G21" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="L21" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="32" t="s">
+      <c r="O21" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="P21" s="33" t="s">
+      <c r="P21" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="Q21" s="34" t="s">
+      <c r="Q21" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="S21" s="32" t="s">
+      <c r="S21" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="T21" s="33" t="s">
+      <c r="T21" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="U21" s="34" t="s">
+      <c r="U21" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="W21" s="76"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="77"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="77"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="109"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="109"/>
     </row>
     <row r="22" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="G22" s="19" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="G22" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="P22" s="20" t="s">
+      <c r="P22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Q22" s="21" t="s">
+      <c r="Q22" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="S22" s="19" t="s">
+      <c r="S22" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="T22" s="20" t="s">
+      <c r="T22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="U22" s="21" t="s">
+      <c r="U22" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="W22" s="86"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="87"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="87"/>
+      <c r="W22" s="110"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="111"/>
+      <c r="AA22" s="110"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="111"/>
     </row>
     <row r="23" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="G23" s="19" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="G23" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="21"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="87"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="87"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="87"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="87"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="87"/>
+      <c r="W23" s="110"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="111"/>
+      <c r="AA23" s="110"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="111"/>
     </row>
     <row r="24" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="G24" s="19" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="G24" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="21"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="21"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="87"/>
-      <c r="AA24" s="86"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="87"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="87"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="87"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="111"/>
+      <c r="AA24" s="110"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="111"/>
     </row>
     <row r="25" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="21"/>
-      <c r="O25" s="19" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="87"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="87"/>
+      <c r="O25" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="P25" s="20" t="s">
+      <c r="P25" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q25" s="21" t="s">
+      <c r="Q25" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="S25" s="19"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="21"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="87"/>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="87"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="87"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="111"/>
+      <c r="AA25" s="110"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="111"/>
     </row>
     <row r="26" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="21"/>
-      <c r="O26" s="19" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="87"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="87"/>
+      <c r="O26" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="20" t="s">
+      <c r="P26" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q26" s="21" t="s">
+      <c r="Q26" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="S26" s="19"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="21"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="87"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="87"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="87"/>
+      <c r="W26" s="110"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="111"/>
+      <c r="AA26" s="110"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="111"/>
     </row>
     <row r="27" spans="1:113" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="55"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="55"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="93"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="93"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="96"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="96"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="96"/>
+      <c r="W27" s="112"/>
+      <c r="X27" s="113"/>
+      <c r="Y27" s="114"/>
+      <c r="AA27" s="112"/>
+      <c r="AB27" s="113"/>
+      <c r="AC27" s="114"/>
     </row>
     <row r="28" spans="1:113" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="56"/>
-      <c r="I28" s="57"/>
-      <c r="K28" s="56"/>
-      <c r="M28" s="57"/>
-      <c r="O28" s="56"/>
-      <c r="Q28" s="57"/>
-      <c r="S28" s="56"/>
-      <c r="U28" s="57"/>
-      <c r="W28" s="56"/>
-      <c r="Y28" s="57"/>
-      <c r="AA28" s="56"/>
-      <c r="AC28" s="57"/>
+      <c r="G28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="K28" s="42"/>
+      <c r="M28" s="43"/>
+      <c r="O28" s="42"/>
+      <c r="Q28" s="43"/>
+      <c r="S28" s="42"/>
+      <c r="U28" s="43"/>
+      <c r="W28" s="42"/>
+      <c r="Y28" s="43"/>
+      <c r="AA28" s="42"/>
+      <c r="AC28" s="43"/>
     </row>
     <row r="29" spans="1:113" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="136"/>
-      <c r="G29" s="118" t="s">
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
+      <c r="G29" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="118" t="s">
+      <c r="H29" s="133"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="119"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="121" t="s">
+      <c r="L29" s="133"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="121" t="s">
+      <c r="P29" s="136"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="T29" s="122"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="124" t="s">
+      <c r="T29" s="136"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="X29" s="125"/>
-      <c r="Y29" s="126"/>
-      <c r="Z29" s="63"/>
-      <c r="AA29" s="106" t="s">
+      <c r="X29" s="139"/>
+      <c r="Y29" s="140"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="105"/>
+      <c r="AB29" s="116"/>
+      <c r="AC29" s="117"/>
     </row>
     <row r="30" spans="1:113" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="133" t="s">
+      <c r="A30" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="64" t="s">
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="68" t="s">
+      <c r="I30" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="K30" s="66" t="s">
+      <c r="K30" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="67" t="s">
+      <c r="L30" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="M30" s="68" t="s">
+      <c r="M30" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="O30" s="11" t="s">
+      <c r="O30" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="P30" s="12" t="s">
+      <c r="P30" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="Q30" s="13" t="s">
+      <c r="Q30" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S30" s="11" t="s">
+      <c r="S30" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="T30" s="12" t="s">
+      <c r="T30" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="U30" s="13" t="s">
+      <c r="U30" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="W30" s="69" t="s">
+      <c r="W30" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="X30" s="70" t="s">
+      <c r="X30" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="Y30" s="71" t="s">
+      <c r="Y30" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AA30" s="69" t="s">
+      <c r="AA30" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="AB30" s="70" t="s">
+      <c r="AB30" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AC30" s="71" t="s">
+      <c r="AC30" s="107" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:113" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="75" t="s">
+      <c r="C31" s="54"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="34"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="34"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="34"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="34"/>
-      <c r="W31" s="76"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="77"/>
-      <c r="AA31" s="76"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="77"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="89"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="89"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="89"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="89"/>
+      <c r="W31" s="108"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="109"/>
+      <c r="AA31" s="108"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="109"/>
     </row>
     <row r="32" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="78"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="75"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="34"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="34"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="34"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="34"/>
-      <c r="W32" s="76"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="77"/>
-      <c r="AA32" s="76"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="77"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="55"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="89"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="89"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="89"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="89"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="109"/>
+      <c r="AA32" s="108"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="109"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="82"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="34"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="34"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="34"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="34"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="77"/>
-      <c r="AA33" s="76"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="77"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="60"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="89"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="89"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="89"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="89"/>
+      <c r="W33" s="108"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="109"/>
+      <c r="AA33" s="108"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="109"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="82"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="34"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="34"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="34"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="34"/>
-      <c r="W34" s="76"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="77"/>
-      <c r="AA34" s="76"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="77"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="60"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="89"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="89"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="89"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="89"/>
+      <c r="W34" s="108"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="109"/>
+      <c r="AA34" s="108"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="109"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="82"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="34"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="34"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="34"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="34"/>
-      <c r="W35" s="76"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="77"/>
-      <c r="AA35" s="76"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="77"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="60"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="89"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="89"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="89"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="89"/>
+      <c r="W35" s="108"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="109"/>
+      <c r="AA35" s="108"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="109"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="82"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="34"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="34"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="34"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="34"/>
-      <c r="W36" s="76"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="77"/>
-      <c r="AA36" s="76"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="77"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="60"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="89"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="89"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="89"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="89"/>
+      <c r="W36" s="108"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="109"/>
+      <c r="AA36" s="108"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="109"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="82"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="34"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="34"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="34"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="34"/>
-      <c r="W37" s="76"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="77"/>
-      <c r="AA37" s="76"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="77"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="60"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="89"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="89"/>
+      <c r="O37" s="86"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="89"/>
+      <c r="S37" s="86"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="89"/>
+      <c r="W37" s="108"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="109"/>
+      <c r="AA37" s="108"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="109"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="82"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="34"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="34"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="34"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="34"/>
-      <c r="W38" s="76"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="77"/>
-      <c r="AA38" s="76"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="77"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="60"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="89"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="89"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="89"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="89"/>
+      <c r="W38" s="108"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="109"/>
+      <c r="AA38" s="108"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="109"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="82"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="34"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="34"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="34"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="34"/>
-      <c r="W39" s="76"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="77"/>
-      <c r="AA39" s="76"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="77"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="60"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="89"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="89"/>
+      <c r="O39" s="86"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="89"/>
+      <c r="S39" s="86"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="89"/>
+      <c r="W39" s="108"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="109"/>
+      <c r="AA39" s="108"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="109"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="82"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="34"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="34"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="34"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="34"/>
-      <c r="W40" s="76"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="77"/>
-      <c r="AA40" s="76"/>
-      <c r="AB40" s="33"/>
-      <c r="AC40" s="77"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="60"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="89"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="89"/>
+      <c r="O40" s="86"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="89"/>
+      <c r="S40" s="86"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="89"/>
+      <c r="W40" s="108"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="109"/>
+      <c r="AA40" s="108"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="109"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="83"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="85"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="21"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="21"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="21"/>
-      <c r="W41" s="86"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="87"/>
-      <c r="AA41" s="86"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="87"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="63"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="87"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="87"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="87"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="87"/>
+      <c r="W41" s="110"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="111"/>
+      <c r="AA41" s="110"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="111"/>
     </row>
     <row r="42" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="85"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="21"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="21"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="21"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="21"/>
-      <c r="W42" s="91"/>
-      <c r="X42" s="92"/>
-      <c r="Y42" s="93"/>
-      <c r="AA42" s="91"/>
-      <c r="AB42" s="92"/>
-      <c r="AC42" s="93"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="63"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="96"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="96"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="96"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="96"/>
+      <c r="W42" s="112"/>
+      <c r="X42" s="113"/>
+      <c r="Y42" s="114"/>
+      <c r="AA42" s="112"/>
+      <c r="AB42" s="113"/>
+      <c r="AC42" s="114"/>
     </row>
     <row r="43" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="138" t="s">
+      <c r="A43" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="139" t="s">
+      <c r="B43" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="139"/>
-      <c r="D43" s="139"/>
-      <c r="E43" s="140" t="s">
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="I43" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="12" t="s">
+      <c r="L43" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="13" t="s">
+      <c r="M43" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="O43" s="94" t="s">
+      <c r="O43" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="95" t="s">
+      <c r="P43" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="96" t="s">
+      <c r="Q43" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="S43" s="94" t="s">
+      <c r="S43" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="95" t="s">
+      <c r="T43" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="96" t="s">
+      <c r="U43" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="W43" s="97" t="s">
+      <c r="W43" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="X43" s="98" t="s">
+      <c r="X43" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="99" t="s">
+      <c r="Y43" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AA43" s="97" t="s">
+      <c r="AA43" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="AB43" s="98" t="s">
+      <c r="AB43" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="AC43" s="99" t="s">
+      <c r="AC43" s="120" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="78"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="75"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="34"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="34"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="44"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="44"/>
-      <c r="W44" s="100"/>
-      <c r="X44" s="101"/>
-      <c r="Y44" s="102"/>
-      <c r="AA44" s="100"/>
-      <c r="AB44" s="101"/>
-      <c r="AC44" s="102"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="55"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="101"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="89"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="101"/>
+      <c r="S44" s="99"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="101"/>
+      <c r="W44" s="121"/>
+      <c r="X44" s="67"/>
+      <c r="Y44" s="122"/>
+      <c r="AA44" s="121"/>
+      <c r="AB44" s="67"/>
+      <c r="AC44" s="122"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="82"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="34"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="34"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="34"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="34"/>
-      <c r="W45" s="76"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="77"/>
-      <c r="AA45" s="76"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="77"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="60"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="89"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="89"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="89"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="89"/>
+      <c r="W45" s="108"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="109"/>
+      <c r="AA45" s="108"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="109"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="82"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="34"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="34"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="34"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="34"/>
-      <c r="W46" s="76"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="77"/>
-      <c r="AA46" s="76"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="77"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="60"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="89"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="89"/>
+      <c r="O46" s="88"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="89"/>
+      <c r="S46" s="88"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="89"/>
+      <c r="W46" s="108"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="109"/>
+      <c r="AA46" s="108"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="109"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="80"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="82"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="34"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="34"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="34"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="34"/>
-      <c r="W47" s="76"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="77"/>
-      <c r="AA47" s="76"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="77"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="60"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="89"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="89"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="89"/>
+      <c r="S47" s="88"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="89"/>
+      <c r="W47" s="108"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="109"/>
+      <c r="AA47" s="108"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="109"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="82"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="34"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="34"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="34"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="34"/>
-      <c r="W48" s="76"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="77"/>
-      <c r="AA48" s="76"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="77"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="60"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="89"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="89"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="89"/>
+      <c r="S48" s="88"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="89"/>
+      <c r="W48" s="108"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="109"/>
+      <c r="AA48" s="108"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="109"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="82"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="34"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="34"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="34"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="34"/>
-      <c r="W49" s="76"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="77"/>
-      <c r="AA49" s="76"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="77"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="60"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="89"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="89"/>
+      <c r="O49" s="88"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="89"/>
+      <c r="S49" s="88"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="89"/>
+      <c r="W49" s="108"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="109"/>
+      <c r="AA49" s="108"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="109"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="82"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="34"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="34"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="34"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="33"/>
-      <c r="U50" s="34"/>
-      <c r="W50" s="76"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="77"/>
-      <c r="AA50" s="76"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="77"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="60"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="89"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="89"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="89"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="89"/>
+      <c r="W50" s="108"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="109"/>
+      <c r="AA50" s="108"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="109"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="82"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="34"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="34"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="34"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="34"/>
-      <c r="W51" s="76"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="77"/>
-      <c r="AA51" s="76"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="77"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="60"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="89"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="89"/>
+      <c r="O51" s="88"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="89"/>
+      <c r="S51" s="88"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="89"/>
+      <c r="W51" s="108"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="109"/>
+      <c r="AA51" s="108"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="109"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="80"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="82"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="34"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="34"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="34"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="34"/>
-      <c r="W52" s="76"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="77"/>
-      <c r="AA52" s="76"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="77"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="60"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="89"/>
+      <c r="K52" s="88"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="89"/>
+      <c r="O52" s="88"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="89"/>
+      <c r="S52" s="88"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="89"/>
+      <c r="W52" s="108"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="109"/>
+      <c r="AA52" s="108"/>
+      <c r="AB52" s="27"/>
+      <c r="AC52" s="109"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="83"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="85"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="21"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="21"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="21"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="21"/>
-      <c r="W53" s="86"/>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="87"/>
-      <c r="AA53" s="86"/>
-      <c r="AB53" s="20"/>
-      <c r="AC53" s="87"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="63"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="87"/>
+      <c r="K53" s="86"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="87"/>
+      <c r="O53" s="86"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="87"/>
+      <c r="S53" s="86"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="87"/>
+      <c r="W53" s="110"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="111"/>
+      <c r="AA53" s="110"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="111"/>
     </row>
     <row r="54" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="103"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="90"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="55"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="55"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="55"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="55"/>
-      <c r="W54" s="91"/>
-      <c r="X54" s="92"/>
-      <c r="Y54" s="93"/>
-      <c r="AA54" s="91"/>
-      <c r="AB54" s="92"/>
-      <c r="AC54" s="93"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="66"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="96"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="95"/>
+      <c r="M54" s="96"/>
+      <c r="O54" s="94"/>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="96"/>
+      <c r="S54" s="94"/>
+      <c r="T54" s="95"/>
+      <c r="U54" s="96"/>
+      <c r="W54" s="112"/>
+      <c r="X54" s="113"/>
+      <c r="Y54" s="114"/>
+      <c r="AA54" s="112"/>
+      <c r="AB54" s="113"/>
+      <c r="AC54" s="114"/>
     </row>
     <row r="55" spans="1:29" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="145" t="s">
+      <c r="A56" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="146" t="s">
+      <c r="B56" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="146"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="147" t="s">
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="H56" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="I56" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="L56" s="12" t="s">
+      <c r="L56" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="M56" s="13" t="s">
+      <c r="M56" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="P56" s="12" t="s">
+      <c r="P56" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="Q56" s="13" t="s">
+      <c r="Q56" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S56" s="11" t="s">
+      <c r="S56" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="T56" s="12" t="s">
+      <c r="T56" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="U56" s="13" t="s">
+      <c r="U56" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="W56" s="110" t="s">
+      <c r="W56" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="X56" s="111" t="s">
+      <c r="X56" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="Y56" s="112" t="s">
+      <c r="Y56" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AA56" s="110" t="s">
+      <c r="AA56" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="AB56" s="111" t="s">
+      <c r="AB56" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AC56" s="112" t="s">
+      <c r="AC56" s="107" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="141" t="s">
+      <c r="A57" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="142" t="s">
+      <c r="B57" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="143"/>
-      <c r="D57" s="144"/>
-      <c r="E57" s="113"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="34"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="34"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="34"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="34"/>
-      <c r="W57" s="76"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="77"/>
-      <c r="AA57" s="76"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="77"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="69"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="89"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="89"/>
+      <c r="O57" s="88"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="89"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="89"/>
+      <c r="W57" s="108"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="109"/>
+      <c r="AA57" s="108"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="109"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="127" t="s">
+      <c r="B58" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="128"/>
-      <c r="D58" s="129"/>
-      <c r="E58" s="59"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="34"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="34"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="34"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="34"/>
-      <c r="W58" s="76"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="77"/>
-      <c r="AA58" s="76"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="77"/>
+      <c r="C58" s="130"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="45"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="89"/>
+      <c r="K58" s="88"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="89"/>
+      <c r="O58" s="88"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="89"/>
+      <c r="S58" s="88"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="89"/>
+      <c r="W58" s="108"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="109"/>
+      <c r="AA58" s="108"/>
+      <c r="AB58" s="27"/>
+      <c r="AC58" s="109"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="58" t="s">
+      <c r="A59" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="127" t="s">
+      <c r="B59" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="128"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="59"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="34"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="34"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="34"/>
-      <c r="S59" s="32"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="34"/>
-      <c r="W59" s="76"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="77"/>
-      <c r="AA59" s="76"/>
-      <c r="AB59" s="33"/>
-      <c r="AC59" s="77"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="45"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="89"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="89"/>
+      <c r="O59" s="88"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="89"/>
+      <c r="S59" s="88"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="89"/>
+      <c r="W59" s="108"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="109"/>
+      <c r="AA59" s="108"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="109"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="58" t="s">
+      <c r="A60" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="127" t="s">
+      <c r="B60" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="128"/>
-      <c r="D60" s="129"/>
-      <c r="E60" s="59"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="34"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="34"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="34"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="34"/>
-      <c r="W60" s="76"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="77"/>
-      <c r="AA60" s="76"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="77"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="45"/>
+      <c r="G60" s="88"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="89"/>
+      <c r="K60" s="88"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="89"/>
+      <c r="O60" s="88"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="89"/>
+      <c r="S60" s="88"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="89"/>
+      <c r="W60" s="108"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="109"/>
+      <c r="AA60" s="108"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="109"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="127"/>
-      <c r="C61" s="128"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="59"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="34"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="34"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="34"/>
-      <c r="S61" s="32"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="34"/>
-      <c r="W61" s="76"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="77"/>
-      <c r="AA61" s="76"/>
-      <c r="AB61" s="33"/>
-      <c r="AC61" s="77"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="130"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="45"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="89"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="89"/>
+      <c r="O61" s="88"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="89"/>
+      <c r="S61" s="88"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="89"/>
+      <c r="W61" s="108"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="109"/>
+      <c r="AA61" s="108"/>
+      <c r="AB61" s="27"/>
+      <c r="AC61" s="109"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="128"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="59"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="34"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="34"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="34"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="33"/>
-      <c r="U62" s="34"/>
-      <c r="W62" s="76"/>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="77"/>
-      <c r="AA62" s="76"/>
-      <c r="AB62" s="33"/>
-      <c r="AC62" s="77"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="131"/>
+      <c r="E62" s="45"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="89"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="89"/>
+      <c r="O62" s="88"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="89"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="89"/>
+      <c r="W62" s="108"/>
+      <c r="X62" s="27"/>
+      <c r="Y62" s="109"/>
+      <c r="AA62" s="108"/>
+      <c r="AB62" s="27"/>
+      <c r="AC62" s="109"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
-      <c r="B63" s="127"/>
-      <c r="C63" s="128"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="59"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="34"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="34"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="34"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="33"/>
-      <c r="U63" s="34"/>
-      <c r="W63" s="76"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="77"/>
-      <c r="AA63" s="76"/>
-      <c r="AB63" s="33"/>
-      <c r="AC63" s="77"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="130"/>
+      <c r="D63" s="131"/>
+      <c r="E63" s="45"/>
+      <c r="G63" s="88"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="89"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="89"/>
+      <c r="O63" s="88"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="89"/>
+      <c r="S63" s="88"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="89"/>
+      <c r="W63" s="108"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="109"/>
+      <c r="AA63" s="108"/>
+      <c r="AB63" s="27"/>
+      <c r="AC63" s="109"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
-      <c r="B64" s="127"/>
-      <c r="C64" s="128"/>
-      <c r="D64" s="129"/>
-      <c r="E64" s="59"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="34"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="34"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="34"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="33"/>
-      <c r="U64" s="34"/>
-      <c r="W64" s="76"/>
-      <c r="X64" s="33"/>
-      <c r="Y64" s="77"/>
-      <c r="AA64" s="76"/>
-      <c r="AB64" s="33"/>
-      <c r="AC64" s="77"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="131"/>
+      <c r="E64" s="45"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="89"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="89"/>
+      <c r="O64" s="88"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="89"/>
+      <c r="S64" s="88"/>
+      <c r="T64" s="27"/>
+      <c r="U64" s="89"/>
+      <c r="W64" s="108"/>
+      <c r="X64" s="27"/>
+      <c r="Y64" s="109"/>
+      <c r="AA64" s="108"/>
+      <c r="AB64" s="27"/>
+      <c r="AC64" s="109"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
-      <c r="B65" s="127"/>
-      <c r="C65" s="128"/>
-      <c r="D65" s="129"/>
-      <c r="E65" s="59"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="34"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="34"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="34"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="33"/>
-      <c r="U65" s="34"/>
-      <c r="W65" s="76"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="77"/>
-      <c r="AA65" s="76"/>
-      <c r="AB65" s="33"/>
-      <c r="AC65" s="77"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="131"/>
+      <c r="E65" s="45"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="89"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="89"/>
+      <c r="O65" s="88"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="89"/>
+      <c r="S65" s="88"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="89"/>
+      <c r="W65" s="108"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="109"/>
+      <c r="AA65" s="108"/>
+      <c r="AB65" s="27"/>
+      <c r="AC65" s="109"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
-      <c r="B66" s="127"/>
-      <c r="C66" s="128"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="59"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="34"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="34"/>
-      <c r="O66" s="32"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="34"/>
-      <c r="S66" s="32"/>
-      <c r="T66" s="33"/>
-      <c r="U66" s="34"/>
-      <c r="W66" s="76"/>
-      <c r="X66" s="33"/>
-      <c r="Y66" s="77"/>
-      <c r="AA66" s="76"/>
-      <c r="AB66" s="33"/>
-      <c r="AC66" s="77"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="131"/>
+      <c r="E66" s="45"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="89"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="89"/>
+      <c r="O66" s="88"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="89"/>
+      <c r="S66" s="88"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="89"/>
+      <c r="W66" s="108"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="109"/>
+      <c r="AA66" s="108"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="109"/>
     </row>
     <row r="67" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="60"/>
-      <c r="B67" s="130"/>
-      <c r="C67" s="131"/>
-      <c r="D67" s="132"/>
-      <c r="E67" s="61"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="55"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="55"/>
-      <c r="O67" s="53"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="55"/>
-      <c r="S67" s="53"/>
-      <c r="T67" s="54"/>
-      <c r="U67" s="55"/>
-      <c r="W67" s="91"/>
-      <c r="X67" s="92"/>
-      <c r="Y67" s="93"/>
-      <c r="AA67" s="91"/>
-      <c r="AB67" s="92"/>
-      <c r="AC67" s="93"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="124"/>
+      <c r="D67" s="125"/>
+      <c r="E67" s="47"/>
+      <c r="G67" s="94"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="96"/>
+      <c r="K67" s="94"/>
+      <c r="L67" s="95"/>
+      <c r="M67" s="96"/>
+      <c r="O67" s="94"/>
+      <c r="P67" s="95"/>
+      <c r="Q67" s="96"/>
+      <c r="S67" s="94"/>
+      <c r="T67" s="95"/>
+      <c r="U67" s="96"/>
+      <c r="W67" s="112"/>
+      <c r="X67" s="113"/>
+      <c r="Y67" s="114"/>
+      <c r="AA67" s="112"/>
+      <c r="AB67" s="113"/>
+      <c r="AC67" s="114"/>
     </row>
     <row r="68" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6267,28 +6256,28 @@
     <protectedRange sqref="AA57:AC67 A57:Y67" name="Contact Fields_1_2"/>
   </protectedRanges>
   <mergeCells count="22">
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="W29:Y29"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
   </mergeCells>
   <conditionalFormatting sqref="A27:R28 W9:AK13 B8:R26 W22:AK28 W19:AC21 W15:AK18 W14:AC14 W8:AC8">
     <cfRule type="expression" dxfId="99" priority="119">
@@ -6386,7 +6375,7 @@
       <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z31:AG36 AA37:AG54 B36 A36:A38 C36:F38 A30:R30 A29:F29 J29 N29 R29 A31:F35 A39:F42 N31:N42 J31:J42 R31:R42 A43:R54 V43:AC43 V29:AG30">
+  <conditionalFormatting sqref="Z31:AG36 AA37:AG54 B36 A36:A38 C36:F38 A30:R30 A29:F29 J29 N29 R29 A31:F35 A39:F42 N31:N42 J31:J42 R31:R42 V43:AC43 V29:AG30 A43:R54">
     <cfRule type="expression" dxfId="75" priority="71">
       <formula>$C29="x"</formula>
     </cfRule>
@@ -6690,15 +6679,12 @@
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D27 C44:D54 C31:D42" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M27 Q7:Q27 U7:U27 AC7:AC27 I7:I27 Y7:Y27 Y44:Y54 Q31:Q42 M31:M42 I31:I42 AC44:AC54 AC31:AC42 Y31:Y42 U31:U42 Y57:Y67 AC57:AC67 Q57:Q67 M57:M67 I57:I67 U57:U67" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q44:Q54 I44:I54 M44:M54 U44:U54" xr:uid="{CB4767CD-7360-4CDC-AE40-B25C981400B7}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I27 M7:M27 Q7:Q27 U7:U27 Y7:Y27 AC7:AC27 AC31:AC42 Y31:Y42 U31:U42 Q31:Q42 M31:M42 I31:I42 I44:I54 I57:I67 Q44:Q55 Y44:Y54 U44:U55 AC44:AC54 AC57:AC67 Y57:Y67 U57:U67 Q57:Q67 M57:M67 M44:M54" xr:uid="{35588001-212A-4488-A7B0-C3F80FBFEC83}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D5DC9-BCC2-4CAD-8E33-047FC4ED9FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD10C29C-7E8D-4C0E-91C4-F52E1F22BD0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>Field Value</t>
   </si>
   <si>
-    <t>this is a note</t>
-  </si>
-  <si>
     <t>CRM System: SuiteCRM</t>
   </si>
   <si>
@@ -365,6 +362,9 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>Notizen</t>
   </si>
 </sst>
 </file>
@@ -1955,32 +1955,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -2009,17 +1994,32 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3741,7 +3741,7 @@
   <dimension ref="A1:DI68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3767,7 +3767,7 @@
   <sheetData>
     <row r="1" spans="1:113" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="2" spans="1:113" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:113" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3789,50 +3789,52 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="141" t="s">
+      <c r="G4" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="141" t="s">
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="O4" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="O4" s="141" t="s">
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="S4" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="W4" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="S4" s="141" t="s">
-        <v>78</v>
-      </c>
-      <c r="T4" s="141"/>
-      <c r="U4" s="141"/>
-      <c r="W4" s="142" t="s">
-        <v>24</v>
-      </c>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="144"/>
-      <c r="AA4" s="142" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="144"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="126"/>
+      <c r="AA4" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="126"/>
     </row>
     <row r="5" spans="1:113" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:113" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
@@ -3924,43 +3926,41 @@
     </row>
     <row r="8" spans="1:113" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>19</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
       <c r="G8" s="88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" s="89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" s="88"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="89"/>
       <c r="S8" s="88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T8" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U8" s="89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W8" s="108" t="s">
         <v>8</v>
@@ -4060,41 +4060,41 @@
     </row>
     <row r="9" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
       <c r="G9" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O9" s="88"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="89"/>
       <c r="S9" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T9" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U9" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W9" s="108"/>
       <c r="X9" s="27"/>
@@ -4105,41 +4105,41 @@
     </row>
     <row r="10" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="26"/>
       <c r="G10" s="88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O10" s="88"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="89"/>
       <c r="S10" s="88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U10" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W10" s="108"/>
       <c r="X10" s="27"/>
@@ -4150,41 +4150,41 @@
     </row>
     <row r="11" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="G11" s="88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" s="88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11" s="88"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="89"/>
       <c r="S11" s="88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T11" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U11" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W11" s="108"/>
       <c r="X11" s="27"/>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="12" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
@@ -4205,10 +4205,10 @@
         <v>10</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="88"/>
       <c r="L12" s="27"/>
@@ -4217,19 +4217,19 @@
         <v>11</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S12" s="88" t="s">
         <v>10</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U12" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W12" s="108"/>
       <c r="X12" s="27"/>
@@ -4240,47 +4240,47 @@
     </row>
     <row r="13" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="26"/>
       <c r="G13" s="86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" s="86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S13" s="86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U13" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W13" s="108"/>
       <c r="X13" s="27"/>
@@ -4291,47 +4291,47 @@
     </row>
     <row r="14" spans="1:113" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
       <c r="G14" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M14" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S14" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T14" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U14" s="91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W14" s="108"/>
       <c r="X14" s="27"/>
@@ -4427,47 +4427,47 @@
     </row>
     <row r="15" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
       <c r="E15" s="26"/>
       <c r="G15" s="92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15" s="92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L15" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S15" s="92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T15" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U15" s="93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W15" s="108"/>
       <c r="X15" s="27"/>
@@ -4478,47 +4478,47 @@
     </row>
     <row r="16" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="G16" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M16" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O16" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q16" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S16" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T16" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U16" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W16" s="108"/>
       <c r="X16" s="27"/>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="17" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
@@ -4539,37 +4539,37 @@
         <v>12</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17" s="88" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M17" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O17" s="88" t="s">
         <v>12</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S17" s="88" t="s">
         <v>12</v>
       </c>
       <c r="T17" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W17" s="108"/>
       <c r="X17" s="27"/>
@@ -4580,47 +4580,47 @@
     </row>
     <row r="18" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
       <c r="G18" s="88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18" s="88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M18" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O18" s="88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S18" s="88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T18" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U18" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W18" s="108"/>
       <c r="X18" s="27"/>
@@ -4631,41 +4631,41 @@
     </row>
     <row r="19" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="E19" s="26"/>
       <c r="G19" s="88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19" s="88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O19" s="88"/>
       <c r="P19" s="27"/>
       <c r="Q19" s="89"/>
       <c r="S19" s="88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T19" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U19" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W19" s="108"/>
       <c r="X19" s="27"/>
@@ -4686,37 +4686,37 @@
         <v>13</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I20" s="91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20" s="90" t="s">
         <v>13</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M20" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O20" s="90" t="s">
         <v>13</v>
       </c>
       <c r="P20" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S20" s="90" t="s">
         <v>13</v>
       </c>
       <c r="T20" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U20" s="91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W20" s="108"/>
       <c r="X20" s="27"/>
@@ -4818,40 +4818,40 @@
       <c r="D21" s="25"/>
       <c r="E21" s="26"/>
       <c r="G21" s="88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21" s="88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M21" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O21" s="88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P21" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S21" s="88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T21" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U21" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W21" s="108"/>
       <c r="X21" s="27"/>
@@ -4872,37 +4872,37 @@
         <v>15</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22" s="86" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M22" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O22" s="86" t="s">
         <v>15</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S22" s="86" t="s">
         <v>15</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U22" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W22" s="110"/>
       <c r="X22" s="16"/>
@@ -4923,10 +4923,10 @@
         <v>16</v>
       </c>
       <c r="H23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="87" t="s">
         <v>40</v>
-      </c>
-      <c r="I23" s="87" t="s">
-        <v>41</v>
       </c>
       <c r="K23" s="86"/>
       <c r="L23" s="16"/>
@@ -4946,29 +4946,29 @@
     </row>
     <row r="24" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="34"/>
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
       <c r="G24" s="86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24" s="86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M24" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O24" s="86"/>
       <c r="P24" s="16"/>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="25" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="34"/>
@@ -4998,13 +4998,13 @@
       <c r="L25" s="16"/>
       <c r="M25" s="87"/>
       <c r="O25" s="86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S25" s="86"/>
       <c r="T25" s="16"/>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="26" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="34"/>
@@ -5031,13 +5031,13 @@
       <c r="L26" s="16"/>
       <c r="M26" s="87"/>
       <c r="O26" s="86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S26" s="86"/>
       <c r="T26" s="16"/>
@@ -5090,54 +5090,54 @@
     </row>
     <row r="29" spans="1:113" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="72"/>
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
       <c r="E29" s="73"/>
-      <c r="G29" s="132" t="s">
+      <c r="G29" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="128"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="133"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="132" t="s">
+      <c r="L29" s="128"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="133"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="135" t="s">
-        <v>23</v>
-      </c>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="137"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="132"/>
       <c r="R29" s="49"/>
-      <c r="S29" s="135" t="s">
-        <v>78</v>
-      </c>
-      <c r="T29" s="136"/>
-      <c r="U29" s="137"/>
+      <c r="S29" s="130" t="s">
+        <v>77</v>
+      </c>
+      <c r="T29" s="131"/>
+      <c r="U29" s="132"/>
       <c r="V29" s="49"/>
-      <c r="W29" s="138" t="s">
-        <v>52</v>
-      </c>
-      <c r="X29" s="139"/>
-      <c r="Y29" s="140"/>
+      <c r="W29" s="133" t="s">
+        <v>51</v>
+      </c>
+      <c r="X29" s="134"/>
+      <c r="Y29" s="135"/>
       <c r="Z29" s="49"/>
       <c r="AA29" s="115" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB29" s="116"/>
       <c r="AC29" s="117"/>
     </row>
     <row r="30" spans="1:113" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="50" t="s">
         <v>81</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>82</v>
       </c>
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
@@ -5201,15 +5201,15 @@
     </row>
     <row r="31" spans="1:113" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="53" t="s">
         <v>83</v>
-      </c>
-      <c r="B31" s="53" t="s">
-        <v>84</v>
       </c>
       <c r="C31" s="54"/>
       <c r="D31" s="53"/>
       <c r="E31" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G31" s="86"/>
       <c r="H31" s="16"/>
@@ -5232,7 +5232,7 @@
     </row>
     <row r="32" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="56"/>
       <c r="C32" s="57"/>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="58"/>
       <c r="C33" s="59"/>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="58"/>
       <c r="C34" s="59"/>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35" s="58"/>
       <c r="C35" s="59"/>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" s="58"/>
       <c r="C36" s="59"/>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" s="58"/>
       <c r="C37" s="59"/>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="58"/>
       <c r="C38" s="59"/>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="58"/>
       <c r="C39" s="59"/>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" s="58"/>
       <c r="C40" s="59"/>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" s="61"/>
       <c r="C41" s="62"/>
@@ -5527,10 +5527,10 @@
     </row>
     <row r="43" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="76"/>
       <c r="D43" s="76"/>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="44" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="56"/>
       <c r="C44" s="57"/>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="58"/>
       <c r="C45" s="59"/>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B46" s="58"/>
       <c r="C46" s="59"/>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="58"/>
       <c r="C47" s="59"/>
@@ -5702,7 +5702,7 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="58"/>
       <c r="C48" s="59"/>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" s="58"/>
       <c r="C49" s="59"/>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" s="58"/>
       <c r="C50" s="59"/>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="58"/>
       <c r="C51" s="59"/>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52" s="58"/>
       <c r="C52" s="59"/>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53" s="61"/>
       <c r="C53" s="62"/>
@@ -5957,13 +5957,13 @@
     </row>
     <row r="57" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A57" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="126" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="127"/>
-      <c r="D57" s="128"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="141"/>
       <c r="E57" s="69"/>
       <c r="G57" s="88"/>
       <c r="H57" s="27"/>
@@ -5986,13 +5986,13 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="129" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="130"/>
-      <c r="D58" s="131"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="142" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="143"/>
+      <c r="D58" s="144"/>
       <c r="E58" s="45"/>
       <c r="G58" s="88"/>
       <c r="H58" s="27"/>
@@ -6015,13 +6015,13 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="130"/>
-      <c r="D59" s="131"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="142" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="143"/>
+      <c r="D59" s="144"/>
       <c r="E59" s="45"/>
       <c r="G59" s="88"/>
       <c r="H59" s="27"/>
@@ -6044,13 +6044,13 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="129" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="130"/>
-      <c r="D60" s="131"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="143"/>
+      <c r="D60" s="144"/>
       <c r="E60" s="45"/>
       <c r="G60" s="88"/>
       <c r="H60" s="27"/>
@@ -6073,9 +6073,9 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="44"/>
-      <c r="B61" s="129"/>
-      <c r="C61" s="130"/>
-      <c r="D61" s="131"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="144"/>
       <c r="E61" s="45"/>
       <c r="G61" s="88"/>
       <c r="H61" s="27"/>
@@ -6098,9 +6098,9 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="44"/>
-      <c r="B62" s="129"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="131"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
       <c r="E62" s="45"/>
       <c r="G62" s="88"/>
       <c r="H62" s="27"/>
@@ -6123,9 +6123,9 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="44"/>
-      <c r="B63" s="129"/>
-      <c r="C63" s="130"/>
-      <c r="D63" s="131"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="144"/>
       <c r="E63" s="45"/>
       <c r="G63" s="88"/>
       <c r="H63" s="27"/>
@@ -6148,9 +6148,9 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="44"/>
-      <c r="B64" s="129"/>
-      <c r="C64" s="130"/>
-      <c r="D64" s="131"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="144"/>
       <c r="E64" s="45"/>
       <c r="G64" s="88"/>
       <c r="H64" s="27"/>
@@ -6173,9 +6173,9 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="44"/>
-      <c r="B65" s="129"/>
-      <c r="C65" s="130"/>
-      <c r="D65" s="131"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="144"/>
       <c r="E65" s="45"/>
       <c r="G65" s="88"/>
       <c r="H65" s="27"/>
@@ -6198,9 +6198,9 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="44"/>
-      <c r="B66" s="129"/>
-      <c r="C66" s="130"/>
-      <c r="D66" s="131"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="144"/>
       <c r="E66" s="45"/>
       <c r="G66" s="88"/>
       <c r="H66" s="27"/>
@@ -6223,9 +6223,9 @@
     </row>
     <row r="67" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="46"/>
-      <c r="B67" s="123"/>
-      <c r="C67" s="124"/>
-      <c r="D67" s="125"/>
+      <c r="B67" s="136"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="138"/>
       <c r="E67" s="47"/>
       <c r="G67" s="94"/>
       <c r="H67" s="95"/>
@@ -6256,17 +6256,6 @@
     <protectedRange sqref="AA57:AC67 A57:Y67" name="Contact Fields_1_2"/>
   </protectedRanges>
   <mergeCells count="22">
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="W29:Y29"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
@@ -6278,6 +6267,17 @@
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="S4:U4"/>
   </mergeCells>
   <conditionalFormatting sqref="A27:R28 W9:AK13 B8:R26 W22:AK28 W19:AC21 W15:AK18 W14:AC14 W8:AC8">
     <cfRule type="expression" dxfId="99" priority="119">

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A850AB-DCF3-4B54-8139-026C61A79B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A239C0-CC6E-4060-8AD3-78A118AED60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18255" windowHeight="5385" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1703,17 +1703,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1742,32 +1757,17 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2894,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:DI69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2949,37 +2949,37 @@
         <v>51</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="O4" s="87" t="s">
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="O4" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="S4" s="87" t="s">
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="S4" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="W4" s="88" t="s">
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="W4" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="90"/>
-      <c r="AA4" s="88" t="s">
+      <c r="X4" s="107"/>
+      <c r="Y4" s="108"/>
+      <c r="AA4" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="108"/>
     </row>
     <row r="5" spans="1:113" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:113" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4386,31 +4386,31 @@
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
       <c r="E33" s="45"/>
-      <c r="G33" s="91" t="s">
+      <c r="G33" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
-      <c r="K33" s="91" t="s">
+      <c r="H33" s="97"/>
+      <c r="I33" s="98"/>
+      <c r="K33" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="92"/>
-      <c r="M33" s="93"/>
-      <c r="O33" s="94" t="s">
+      <c r="L33" s="97"/>
+      <c r="M33" s="98"/>
+      <c r="O33" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="96"/>
-      <c r="S33" s="94" t="s">
+      <c r="P33" s="100"/>
+      <c r="Q33" s="101"/>
+      <c r="S33" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="T33" s="95"/>
-      <c r="U33" s="96"/>
-      <c r="W33" s="97" t="s">
+      <c r="T33" s="100"/>
+      <c r="U33" s="101"/>
+      <c r="W33" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="X33" s="98"/>
-      <c r="Y33" s="99"/>
+      <c r="X33" s="103"/>
+      <c r="Y33" s="104"/>
       <c r="AA33" s="78" t="s">
         <v>49</v>
       </c>
@@ -5244,9 +5244,9 @@
       <c r="A61" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="103"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="105"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="92"/>
       <c r="E61" s="41"/>
       <c r="G61" s="58"/>
       <c r="H61" s="18"/>
@@ -5271,11 +5271,11 @@
       <c r="A62" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="106" t="s">
+      <c r="B62" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="107"/>
-      <c r="D62" s="108"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="95"/>
       <c r="E62" s="28"/>
       <c r="G62" s="58"/>
       <c r="H62" s="18"/>
@@ -5300,11 +5300,11 @@
       <c r="A63" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="106" t="s">
+      <c r="B63" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="107"/>
-      <c r="D63" s="108"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="95"/>
       <c r="E63" s="28"/>
       <c r="G63" s="58"/>
       <c r="H63" s="18"/>
@@ -5329,11 +5329,11 @@
       <c r="A64" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="106" t="s">
+      <c r="B64" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="107"/>
-      <c r="D64" s="108"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="95"/>
       <c r="E64" s="28"/>
       <c r="G64" s="58"/>
       <c r="H64" s="18"/>
@@ -5358,11 +5358,11 @@
       <c r="A65" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="106" t="s">
+      <c r="B65" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="107"/>
-      <c r="D65" s="108"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="95"/>
       <c r="E65" s="28"/>
       <c r="G65" s="58"/>
       <c r="H65" s="18"/>
@@ -5385,9 +5385,9 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="27"/>
-      <c r="B66" s="106"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="108"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="95"/>
       <c r="E66" s="28"/>
       <c r="G66" s="58"/>
       <c r="H66" s="18"/>
@@ -5410,9 +5410,9 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
-      <c r="B67" s="106"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="108"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="95"/>
       <c r="E67" s="28"/>
       <c r="G67" s="58"/>
       <c r="H67" s="18"/>
@@ -5435,9 +5435,9 @@
     </row>
     <row r="68" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="101"/>
-      <c r="D68" s="102"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="89"/>
       <c r="E68" s="30"/>
       <c r="G68" s="60"/>
       <c r="H68" s="61"/>
@@ -5468,6 +5468,17 @@
     <protectedRange sqref="AA66:AC68 A66:E68 G66:I68 K66:M68 O66:Q68 S66:U68 W66:Y68 W61:Y65 S61:U65 O61:Q65 K61:M65 G61:I65 A61:E65 AA61:AC65" name="Contact Fields_1_2"/>
   </protectedRanges>
   <mergeCells count="19">
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="W33:Y33"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B62:D62"/>
@@ -5476,17 +5487,6 @@
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="S4:U4"/>
   </mergeCells>
   <conditionalFormatting sqref="A31:E32 W10:Y32 B7:E30 G7:I32 K31:M32 O31:Q32 AA10:AC32">
     <cfRule type="expression" dxfId="45" priority="125">

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A239C0-CC6E-4060-8AD3-78A118AED60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E7C740-7EDE-4506-BA20-93A776414C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -1703,32 +1703,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1757,17 +1742,32 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2894,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:DI69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC61" activeCellId="23" sqref="I7:I31 M7:M31 Q7:Q31 U7:U31 Y7:Y31 AC7:AC31 I35:I46 M35:M46 Q35:Q46 U35:U46 Y35:Y46 AC35:AC46 I48:I58 M48:M58 Q48:Q58 U48:U58 Y48:Y58 AC48:AC58 I61:I68 M61:M68 Q61:Q68 U61:U68 Y61:Y68 AC61:AC68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2949,37 +2949,37 @@
         <v>51</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="105" t="s">
+      <c r="G4" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="O4" s="105" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="O4" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="S4" s="105" t="s">
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="S4" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="W4" s="106" t="s">
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="W4" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="108"/>
-      <c r="AA4" s="106" t="s">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="90"/>
+      <c r="AA4" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="108"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
     </row>
     <row r="5" spans="1:113" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:113" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4386,31 +4386,31 @@
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
       <c r="E33" s="45"/>
-      <c r="G33" s="96" t="s">
+      <c r="G33" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="97"/>
-      <c r="I33" s="98"/>
-      <c r="K33" s="96" t="s">
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
+      <c r="K33" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="97"/>
-      <c r="M33" s="98"/>
-      <c r="O33" s="99" t="s">
+      <c r="L33" s="92"/>
+      <c r="M33" s="93"/>
+      <c r="O33" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="101"/>
-      <c r="S33" s="99" t="s">
+      <c r="P33" s="95"/>
+      <c r="Q33" s="96"/>
+      <c r="S33" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="T33" s="100"/>
-      <c r="U33" s="101"/>
-      <c r="W33" s="102" t="s">
+      <c r="T33" s="95"/>
+      <c r="U33" s="96"/>
+      <c r="W33" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="104"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="99"/>
       <c r="AA33" s="78" t="s">
         <v>49</v>
       </c>
@@ -5244,9 +5244,9 @@
       <c r="A61" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="90"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="92"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="105"/>
       <c r="E61" s="41"/>
       <c r="G61" s="58"/>
       <c r="H61" s="18"/>
@@ -5271,11 +5271,11 @@
       <c r="A62" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="93" t="s">
+      <c r="B62" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="94"/>
-      <c r="D62" s="95"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="108"/>
       <c r="E62" s="28"/>
       <c r="G62" s="58"/>
       <c r="H62" s="18"/>
@@ -5300,11 +5300,11 @@
       <c r="A63" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="93" t="s">
+      <c r="B63" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="94"/>
-      <c r="D63" s="95"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="108"/>
       <c r="E63" s="28"/>
       <c r="G63" s="58"/>
       <c r="H63" s="18"/>
@@ -5329,11 +5329,11 @@
       <c r="A64" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="93" t="s">
+      <c r="B64" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="94"/>
-      <c r="D64" s="95"/>
+      <c r="C64" s="107"/>
+      <c r="D64" s="108"/>
       <c r="E64" s="28"/>
       <c r="G64" s="58"/>
       <c r="H64" s="18"/>
@@ -5358,11 +5358,11 @@
       <c r="A65" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="93" t="s">
+      <c r="B65" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="94"/>
-      <c r="D65" s="95"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="108"/>
       <c r="E65" s="28"/>
       <c r="G65" s="58"/>
       <c r="H65" s="18"/>
@@ -5385,9 +5385,9 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="27"/>
-      <c r="B66" s="93"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="95"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="107"/>
+      <c r="D66" s="108"/>
       <c r="E66" s="28"/>
       <c r="G66" s="58"/>
       <c r="H66" s="18"/>
@@ -5410,9 +5410,9 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
-      <c r="B67" s="93"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="95"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="108"/>
       <c r="E67" s="28"/>
       <c r="G67" s="58"/>
       <c r="H67" s="18"/>
@@ -5435,9 +5435,9 @@
     </row>
     <row r="68" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
-      <c r="B68" s="87"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="89"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="102"/>
       <c r="E68" s="30"/>
       <c r="G68" s="60"/>
       <c r="H68" s="61"/>
@@ -5468,17 +5468,6 @@
     <protectedRange sqref="AA66:AC68 A66:E68 G66:I68 K66:M68 O66:Q68 S66:U68 W66:Y68 W61:Y65 S61:U65 O61:Q65 K61:M65 G61:I65 A61:E65 AA61:AC65" name="Contact Fields_1_2"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="W33:Y33"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B62:D62"/>
@@ -5487,6 +5476,17 @@
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="S4:U4"/>
   </mergeCells>
   <conditionalFormatting sqref="A31:E32 W10:Y32 B7:E30 G7:I32 K31:M32 O31:Q32 AA10:AC32">
     <cfRule type="expression" dxfId="45" priority="125">
@@ -5672,12 +5672,15 @@
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D31 C48:D58 C35:D46" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I31 M7:M31 Q7:Q31 U7:U31 Y7:Y31 AC7:AC31 AC35:AC46 Y35:Y46 U35:U46 Q35:Q46 M35:M46 I35:I46 I48:I58 Q48:Q59 Y48:Y58 U48:U59 AC48:AC58 M48:M58 M61:M68 Q61:Q68 U61:U68 Y61:Y68 AC61:AC68 I61:I68" xr:uid="{35588001-212A-4488-A7B0-C3F80FBFEC83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U59 Q59" xr:uid="{35588001-212A-4488-A7B0-C3F80FBFEC83}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I31 M7:M31 Q7:Q31 U7:U31 Y7:Y31 AC7:AC31 I35:I46 M35:M46 Q35:Q46 U35:U46 Y35:Y46 AC35:AC46 I48:I58 M48:M58 Q48:Q58 U48:U58 Y48:Y58 AC48:AC58 I61:I68 M61:M68 Q61:Q68 U61:U68 Y61:Y68 AC61:AC68" xr:uid="{FAC47294-A009-45FB-AB24-190FCF4B0AC5}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
